--- a/demo/tablas_excel/CR/revocando_uno_a_uno/10_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando_uno_a_uno/10_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.3221739130434782</v>
       </c>
       <c r="F3" t="n">
-        <v>27.55695652173913</v>
+        <v>2.755695652173913</v>
       </c>
       <c r="G3" t="n">
         <v>63.45</v>
@@ -556,7 +556,7 @@
         <v>0.02548799092042016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5891054997664446</v>
+        <v>0.05891054997664446</v>
       </c>
       <c r="G4" t="n">
         <v>4.915726463775896</v>
@@ -587,7 +587,7 @@
         <v>0.28</v>
       </c>
       <c r="F5" t="n">
-        <v>27.29</v>
+        <v>2.729</v>
       </c>
       <c r="G5" t="n">
         <v>58.34</v>
@@ -618,7 +618,7 @@
         <v>0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>27.32</v>
+        <v>2.732</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
@@ -649,7 +649,7 @@
         <v>0.3221739130434782</v>
       </c>
       <c r="F7" t="n">
-        <v>27.34</v>
+        <v>2.734</v>
       </c>
       <c r="G7" t="n">
         <v>62.68</v>
@@ -680,7 +680,7 @@
         <v>0.34</v>
       </c>
       <c r="F8" t="n">
-        <v>27.37</v>
+        <v>2.737</v>
       </c>
       <c r="G8" t="n">
         <v>65</v>
@@ -711,7 +711,7 @@
         <v>0.38</v>
       </c>
       <c r="F9" t="n">
-        <v>29.56</v>
+        <v>2.956</v>
       </c>
       <c r="G9" t="n">
         <v>80.90000000000001</v>
